--- a/biology/Botanique/Coquette_(pomme)/Coquette_(pomme).xlsx
+++ b/biology/Botanique/Coquette_(pomme)/Coquette_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coquette est le nom d'un cultivar de pommier domestique, variété locale des Pyrénées-Orientales.
 Nom botanique : Malus domestica 'Coquette'.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Blanche-d'Espagne.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine ancienne et inconnue.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre très vigoureux au port érigé.
 Le fruit est moyen ou assez gros, plus large que haut à contour régulier, asymétrique.
@@ -582,7 +600,7 @@
 L'épiderme se révèle uniformément jaune clair, lavé de rose vif à maturité.
 Sa chair est blanche, assez juteuse.
 La maturité est atteinte de novembre à avril.
-Sur franc, la maturité de l'arbre est soutenue, bien que se manifestant tardivement[1].
+Sur franc, la maturité de l'arbre est soutenue, bien que se manifestant tardivement.
 </t>
         </is>
       </c>
